--- a/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
+++ b/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -398,6 +398,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"数量,箱数"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
+++ b/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -398,11 +398,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"数量,箱数"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
+++ b/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
@@ -14,12 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>条码</t>
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -87,6 +92,140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="981075"/>
+          <a:ext cx="4124325" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>使用说明：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>、条码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>货号：必填，未填无法导入成功；</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>、箱数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>数量：选填</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>同一个导入文件只支持一种计数方式（即只能按“箱数”导入或按“数量”导入）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>箱数与数量都填写时，以数量为准导入 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,34 +515,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"数量,箱数"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
+++ b/src/main/resources/template/excel/export/StockAdjustBarTemple.xlsx
@@ -74,9 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,22 +519,23 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
